--- a/data/trans_orig/P36BPD14_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD14_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>33623</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>23268</v>
+        <v>22738</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>48232</v>
+        <v>47903</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.06126545360015095</v>
+        <v>0.06126545360015096</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04239773187323186</v>
+        <v>0.04143107573737693</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08788486619074314</v>
+        <v>0.08728639597919087</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>79</v>
@@ -762,19 +762,19 @@
         <v>59669</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>47994</v>
+        <v>48437</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>74492</v>
+        <v>73995</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1221691110044449</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09826617630516365</v>
+        <v>0.09917250797705815</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1525185915058968</v>
+        <v>0.1515017599082213</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>110</v>
@@ -783,19 +783,19 @@
         <v>93292</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>77918</v>
+        <v>77027</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>111492</v>
+        <v>112767</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.08994413777168325</v>
+        <v>0.08994413777168324</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07512209720240132</v>
+        <v>0.07426312860943721</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1074910945405852</v>
+        <v>0.10872103749628</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>233590</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>211345</v>
+        <v>211609</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>259821</v>
+        <v>257625</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.4256324347932198</v>
+        <v>0.4256324347932199</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3851000617631551</v>
+        <v>0.3855806295650391</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4734303091078237</v>
+        <v>0.4694283561250673</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>254</v>
@@ -833,19 +833,19 @@
         <v>186353</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>166614</v>
+        <v>166192</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>206888</v>
+        <v>205420</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.3815498577029345</v>
+        <v>0.3815498577029344</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3411349616963912</v>
+        <v>0.3402712002999417</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4235937696249212</v>
+        <v>0.4205874004951754</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>494</v>
@@ -854,19 +854,19 @@
         <v>419943</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>392540</v>
+        <v>390005</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>449722</v>
+        <v>454294</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.4048745631033927</v>
+        <v>0.4048745631033926</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3784547127021538</v>
+        <v>0.3760113060975447</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4335855056557277</v>
+        <v>0.4379936268932103</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>281594</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>256861</v>
+        <v>258216</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>306395</v>
+        <v>304305</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.5131021116066292</v>
+        <v>0.5131021116066293</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4680364842036778</v>
+        <v>0.470505395507832</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5582945551066134</v>
+        <v>0.5544861416981224</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>353</v>
@@ -904,19 +904,19 @@
         <v>242389</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>221135</v>
+        <v>220633</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>260662</v>
+        <v>261301</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4962810312926207</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4527649806384958</v>
+        <v>0.4517356538032183</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.533694976748202</v>
+        <v>0.535002227097032</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>633</v>
@@ -925,19 +925,19 @@
         <v>523983</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>495892</v>
+        <v>491133</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>555493</v>
+        <v>556012</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.505181299124924</v>
+        <v>0.5051812991249239</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4780983424982934</v>
+        <v>0.4735099479569715</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5355608469951714</v>
+        <v>0.5360618562112496</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>38361</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>26732</v>
+        <v>27525</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>51234</v>
+        <v>53586</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.0793875244603354</v>
+        <v>0.07938752446033538</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05532170916650181</v>
+        <v>0.05696179863747902</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1060287874477216</v>
+        <v>0.1108955031429389</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>57</v>
@@ -1050,19 +1050,19 @@
         <v>44118</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>33460</v>
+        <v>34135</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>56483</v>
+        <v>56402</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1042627358975061</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07907429585222718</v>
+        <v>0.08067017987853466</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1334850300077201</v>
+        <v>0.1332919892908363</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>93</v>
@@ -1071,19 +1071,19 @@
         <v>82479</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>68088</v>
+        <v>66905</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>101801</v>
+        <v>100403</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.09100081941905135</v>
+        <v>0.09100081941905133</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.07512341906815598</v>
+        <v>0.07381732026567393</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.112319207136141</v>
+        <v>0.1107765240749359</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>210737</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>189468</v>
+        <v>188405</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>234424</v>
+        <v>233087</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4361180837424289</v>
+        <v>0.4361180837424288</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3921012325567805</v>
+        <v>0.3899011949230791</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4851362681156837</v>
+        <v>0.4823708463125943</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>209</v>
@@ -1121,19 +1121,19 @@
         <v>156100</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>137591</v>
+        <v>137794</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>172759</v>
+        <v>173679</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.3689063076526645</v>
+        <v>0.3689063076526646</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.325163354118703</v>
+        <v>0.3256429333093578</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4082764089881624</v>
+        <v>0.4104505434280941</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>421</v>
@@ -1142,19 +1142,19 @@
         <v>366838</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>339627</v>
+        <v>340080</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>393531</v>
+        <v>397302</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4047394487345979</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3747169637972684</v>
+        <v>0.3752174148610342</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4341906938488269</v>
+        <v>0.438351966172339</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>234114</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>208291</v>
+        <v>211378</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>255947</v>
+        <v>258028</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4844943917972357</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4310559982478119</v>
+        <v>0.4374442163900457</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5296780120441956</v>
+        <v>0.5339857524848753</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>324</v>
@@ -1192,19 +1192,19 @@
         <v>222925</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>204124</v>
+        <v>205547</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>240166</v>
+        <v>240286</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5268309564498291</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4823990145635738</v>
+        <v>0.4857628958237616</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5675764678834087</v>
+        <v>0.5678592255497775</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>557</v>
@@ -1213,19 +1213,19 @@
         <v>457038</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>427699</v>
+        <v>428987</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>484866</v>
+        <v>486474</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.5042597318463508</v>
+        <v>0.5042597318463509</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4718891938619446</v>
+        <v>0.4733096323347232</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5349621471903996</v>
+        <v>0.5367371370140375</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>37572</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>26627</v>
+        <v>25461</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>51864</v>
+        <v>53431</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.07981359404689149</v>
+        <v>0.07981359404689148</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05656277210003845</v>
+        <v>0.0540858473217043</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1101735014373176</v>
+        <v>0.1135028262169602</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>24</v>
@@ -1338,19 +1338,19 @@
         <v>16642</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>11306</v>
+        <v>11669</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>24641</v>
+        <v>24717</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.08875795989295077</v>
+        <v>0.08875795989295075</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06029742184065665</v>
+        <v>0.06223664986347512</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1314224413399568</v>
+        <v>0.1318272072845393</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>57</v>
@@ -1359,19 +1359,19 @@
         <v>54214</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>40695</v>
+        <v>41188</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>72484</v>
+        <v>72857</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0823613485070212</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06182407932444177</v>
+        <v>0.06257314136034973</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1101170097988475</v>
+        <v>0.1106836266919406</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>215084</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>192053</v>
+        <v>193117</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>235907</v>
+        <v>235673</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4568988540571174</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4079754458358065</v>
+        <v>0.4102356241166719</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5011339302943614</v>
+        <v>0.5006362991550833</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>114</v>
@@ -1409,19 +1409,19 @@
         <v>74800</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>64621</v>
+        <v>62966</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>87077</v>
+        <v>86486</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3989391941639151</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3446526138255132</v>
+        <v>0.3358227433800856</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4644170805065047</v>
+        <v>0.461265983111433</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>342</v>
@@ -1430,19 +1430,19 @@
         <v>289884</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>266534</v>
+        <v>267163</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>316395</v>
+        <v>314105</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.440389356956709</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4049164040857503</v>
+        <v>0.4058721021783281</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4806658159482491</v>
+        <v>0.4771856115347685</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>218091</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>197084</v>
+        <v>197435</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>240578</v>
+        <v>240741</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4632875518959911</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4186633148275665</v>
+        <v>0.4194083136652276</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5110553931332373</v>
+        <v>0.5114024012047974</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>151</v>
@@ -1480,19 +1480,19 @@
         <v>96055</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>84661</v>
+        <v>84318</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>107152</v>
+        <v>107812</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5123028459431341</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4515306224875976</v>
+        <v>0.4497042865701049</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5714853760748668</v>
+        <v>0.5750042083255275</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>377</v>
@@ -1501,19 +1501,19 @@
         <v>314146</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>289378</v>
+        <v>289171</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>340593</v>
+        <v>336714</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4772492945362698</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4396218116171015</v>
+        <v>0.4393069047192544</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5174271105383699</v>
+        <v>0.5115340341458126</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>125168</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>101971</v>
+        <v>103486</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>150739</v>
+        <v>152727</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.110828941668421</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09028937624648653</v>
+        <v>0.09163040846173719</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1334702727501125</v>
+        <v>0.1352303345483325</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>109</v>
@@ -1626,19 +1626,19 @@
         <v>76915</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>62507</v>
+        <v>64347</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>90992</v>
+        <v>92653</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08931035844387593</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07258041702421036</v>
+        <v>0.07471712585075871</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1056556526267556</v>
+        <v>0.1075842892016598</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>219</v>
@@ -1647,19 +1647,19 @@
         <v>202084</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>176238</v>
+        <v>174407</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>231396</v>
+        <v>233387</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1015191392863307</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08853509397393265</v>
+        <v>0.08761550076613263</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1162443911381636</v>
+        <v>0.1172446394044433</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>455961</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>420829</v>
+        <v>422700</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>492287</v>
+        <v>497875</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.4037252129409427</v>
+        <v>0.4037252129409428</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3726183241674956</v>
+        <v>0.3742747484574429</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4358896222975984</v>
+        <v>0.4408379708134846</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>455</v>
@@ -1697,19 +1697,19 @@
         <v>334917</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>311343</v>
+        <v>307840</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>358472</v>
+        <v>358681</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3888913185361715</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3615182420773649</v>
+        <v>0.3574504041869861</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4162418781851341</v>
+        <v>0.4164839937283226</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>907</v>
@@ -1718,19 +1718,19 @@
         <v>790879</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>744924</v>
+        <v>744412</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>831906</v>
+        <v>831999</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.3973074751175858</v>
+        <v>0.3973074751175859</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3742215742111878</v>
+        <v>0.3739644351266397</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4179178361317159</v>
+        <v>0.4179645985714041</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>548255</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>512321</v>
+        <v>504961</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>586267</v>
+        <v>583160</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.4854458453906362</v>
+        <v>0.4854458453906363</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4536283595241278</v>
+        <v>0.4471122617514525</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5191031012450604</v>
+        <v>0.5163524631312613</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>666</v>
@@ -1768,19 +1768,19 @@
         <v>449378</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>426211</v>
+        <v>423402</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>478191</v>
+        <v>476464</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.5217983230199527</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4948967741992042</v>
+        <v>0.4916355696303971</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5552545391218946</v>
+        <v>0.5532491639494721</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1219</v>
@@ -1789,19 +1789,19 @@
         <v>997634</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>953778</v>
+        <v>953807</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1042040</v>
+        <v>1044171</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5011733855960835</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4791419436265412</v>
+        <v>0.4791564912410402</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5234816331729292</v>
+        <v>0.5245521166613001</v>
       </c>
     </row>
     <row r="19">
@@ -1893,19 +1893,19 @@
         <v>73947</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>56722</v>
+        <v>54125</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>98326</v>
+        <v>95371</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1312319684046909</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1006619201251229</v>
+        <v>0.09605360342895473</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1744965780695875</v>
+        <v>0.169251272013439</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>106</v>
@@ -1914,19 +1914,19 @@
         <v>66538</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>55176</v>
+        <v>54782</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>81276</v>
+        <v>79867</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.08096529460939157</v>
+        <v>0.08096529460939156</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06713959633472449</v>
+        <v>0.06666042317204157</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0988989753578397</v>
+        <v>0.0971846569673453</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>163</v>
@@ -1935,19 +1935,19 @@
         <v>140485</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>118936</v>
+        <v>119263</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>165547</v>
+        <v>167361</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1014119303216379</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.08585591300800301</v>
+        <v>0.08609217789321409</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1195033011022864</v>
+        <v>0.1208125688602639</v>
       </c>
     </row>
     <row r="21">
@@ -1964,19 +1964,19 @@
         <v>251630</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>225557</v>
+        <v>223531</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>275695</v>
+        <v>275117</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4465586720877839</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4002882073028696</v>
+        <v>0.3966932585660515</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4892661862136156</v>
+        <v>0.4882414312251285</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>567</v>
@@ -1985,19 +1985,19 @@
         <v>371411</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>347584</v>
+        <v>348020</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>392773</v>
+        <v>395310</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.4519443407444584</v>
+        <v>0.4519443407444583</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4229508539463507</v>
+        <v>0.4234817885089351</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4779388959579713</v>
+        <v>0.4810255753540773</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>828</v>
@@ -2006,19 +2006,19 @@
         <v>623040</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>588546</v>
+        <v>588150</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>656759</v>
+        <v>659340</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4497536486461842</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4248530302189594</v>
+        <v>0.4245678160186346</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4740946146113151</v>
+        <v>0.4759572578954866</v>
       </c>
     </row>
     <row r="22">
@@ -2035,19 +2035,19 @@
         <v>237909</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>212356</v>
+        <v>215369</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>264687</v>
+        <v>268169</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4222093595075253</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.376861668035643</v>
+        <v>0.3822086292884257</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4697318023734521</v>
+        <v>0.4759097866180048</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>607</v>
@@ -2056,19 +2056,19 @@
         <v>383858</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>362164</v>
+        <v>362259</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>408998</v>
+        <v>408166</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.4670903646461502</v>
+        <v>0.4670903646461501</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4406923787973937</v>
+        <v>0.4408082350433672</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4976820367515604</v>
+        <v>0.4966695769814506</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>831</v>
@@ -2077,19 +2077,19 @@
         <v>621767</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>589976</v>
+        <v>588151</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>657873</v>
+        <v>658184</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.4488344210321779</v>
+        <v>0.4488344210321778</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4258853726529975</v>
+        <v>0.4245684061849903</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4748980810684254</v>
+        <v>0.4751229682043439</v>
       </c>
     </row>
     <row r="23">
@@ -2181,19 +2181,19 @@
         <v>13276</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4721</v>
+        <v>4334</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>30715</v>
+        <v>28944</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.05665983337753221</v>
+        <v>0.05665983337753223</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0201477634423276</v>
+        <v>0.01849499420090418</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1310886444119713</v>
+        <v>0.1235275028917435</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>143</v>
@@ -2202,19 +2202,19 @@
         <v>103869</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>86626</v>
+        <v>85731</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>123618</v>
+        <v>123541</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1238100841706994</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1032569293679733</v>
+        <v>0.1021898021412994</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.147349820030093</v>
+        <v>0.147259021108784</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>148</v>
@@ -2223,19 +2223,19 @@
         <v>117145</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>97209</v>
+        <v>95346</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>141988</v>
+        <v>142279</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1091499428687954</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.09057465485035388</v>
+        <v>0.08883885717482974</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1322974168467193</v>
+        <v>0.1325683777407739</v>
       </c>
     </row>
     <row r="25">
@@ -2252,19 +2252,19 @@
         <v>128086</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>102910</v>
+        <v>104387</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>151322</v>
+        <v>153536</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.5466537525664381</v>
+        <v>0.546653752566438</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4392053075058466</v>
+        <v>0.4455066326283448</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6458188526067028</v>
+        <v>0.6552668385685692</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>604</v>
@@ -2273,19 +2273,19 @@
         <v>443469</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>410762</v>
+        <v>416470</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>468878</v>
+        <v>472471</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5286072432996641</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4896208312239059</v>
+        <v>0.4964241154720466</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5588937962255178</v>
+        <v>0.5631773888233965</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>663</v>
@@ -2294,19 +2294,19 @@
         <v>571556</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>531029</v>
+        <v>535514</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>605590</v>
+        <v>607153</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.5325471299379422</v>
+        <v>0.5325471299379423</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4947861542930123</v>
+        <v>0.4989650019300308</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5642585807364104</v>
+        <v>0.5657152211540599</v>
       </c>
     </row>
     <row r="26">
@@ -2323,19 +2323,19 @@
         <v>92948</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>69972</v>
+        <v>69851</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>116027</v>
+        <v>116723</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3966864140560299</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2986280444620481</v>
+        <v>0.2981121109102527</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4951839263119101</v>
+        <v>0.498156024220861</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>409</v>
@@ -2344,19 +2344,19 @@
         <v>291601</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>266182</v>
+        <v>266534</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>320811</v>
+        <v>320185</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3475826725296364</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3172844473829485</v>
+        <v>0.3177040966325522</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3824012218869896</v>
+        <v>0.3816544610443513</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>455</v>
@@ -2365,19 +2365,19 @@
         <v>384548</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>349491</v>
+        <v>351101</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>422499</v>
+        <v>418332</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3583029271932623</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3256384153036777</v>
+        <v>0.3271383857789347</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3936638397926438</v>
+        <v>0.3897813717997436</v>
       </c>
     </row>
     <row r="27">
@@ -2469,19 +2469,19 @@
         <v>321948</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>282499</v>
+        <v>282948</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>363979</v>
+        <v>363465</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.09386379051461105</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.08236246375213972</v>
+        <v>0.08249336872378714</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1061180907396439</v>
+        <v>0.1059682607050952</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>518</v>
@@ -2490,19 +2490,19 @@
         <v>367751</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>335267</v>
+        <v>332684</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>399358</v>
+        <v>399461</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1015603007797665</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.09258952904572358</v>
+        <v>0.0918762335807206</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1102892001343926</v>
+        <v>0.1103175818239953</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>790</v>
@@ -2511,19 +2511,19 @@
         <v>689698</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>638664</v>
+        <v>641810</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>747246</v>
+        <v>747925</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.09781632356997869</v>
+        <v>0.09781632356997866</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.09057839674730329</v>
+        <v>0.09102462528770128</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1059780940956526</v>
+        <v>0.1060743662043215</v>
       </c>
     </row>
     <row r="29">
@@ -2540,19 +2540,19 @@
         <v>1495087</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1421606</v>
+        <v>1429704</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1564078</v>
+        <v>1559000</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.4358926137323174</v>
+        <v>0.4358926137323175</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4144692186415602</v>
+        <v>0.4168300018704918</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4560069365454937</v>
+        <v>0.4545263519164236</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2203</v>
@@ -2561,19 +2561,19 @@
         <v>1567050</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1514992</v>
+        <v>1515925</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1616198</v>
+        <v>1621735</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.4327664780998083</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4183898078452014</v>
+        <v>0.4186474708128875</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4463393669822999</v>
+        <v>0.4478685780006707</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3655</v>
@@ -2582,19 +2582,19 @@
         <v>3062138</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2978208</v>
+        <v>2979099</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3140922</v>
+        <v>3152321</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.4342871907552319</v>
+        <v>0.434287190755232</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4223838323138984</v>
+        <v>0.4225102868151158</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.445460781273307</v>
+        <v>0.4470774329788051</v>
       </c>
     </row>
     <row r="30">
@@ -2611,19 +2611,19 @@
         <v>1612909</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1541301</v>
+        <v>1548850</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1679935</v>
+        <v>1678767</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.4702435957530716</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4493662690525186</v>
+        <v>0.4515670438963418</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4897850140352722</v>
+        <v>0.4894445749216997</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>2510</v>
@@ -2632,19 +2632,19 @@
         <v>1686206</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1634641</v>
+        <v>1636020</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1738894</v>
+        <v>1741253</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.4656732211204251</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4514325876379026</v>
+        <v>0.451813670474178</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4802238722804866</v>
+        <v>0.4808753591388566</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>4072</v>
@@ -2653,19 +2653,19 @@
         <v>3299115</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>3217412</v>
+        <v>3212986</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>3381476</v>
+        <v>3379238</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.4678964856747893</v>
+        <v>0.4678964856747894</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4563089278706574</v>
+        <v>0.4556812411165215</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4795772259437074</v>
+        <v>0.4792598774929679</v>
       </c>
     </row>
     <row r="31">
